--- a/data/trans_orig/Q5408-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5408-Edad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4226</v>
+        <v>4700</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002865526581113003</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01444406234755614</v>
+        <v>0.01606287334667049</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4493</v>
+        <v>5149</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002614239136461955</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01310154798785097</v>
+        <v>0.01501447126114351</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5341</v>
+        <v>5321</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00272992830695122</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.008403884779095604</v>
+        <v>0.008372955363873752</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>4555</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1734</v>
+        <v>1715</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10002</v>
+        <v>9838</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01556899887072329</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.005927450869592136</v>
+        <v>0.005860978785924529</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03418460628885953</v>
+        <v>0.0336254690574114</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -836,19 +836,19 @@
         <v>5728</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1980</v>
+        <v>1946</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11537</v>
+        <v>12512</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01670259209603631</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.005773384115310814</v>
+        <v>0.005675486589945519</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03364148640804452</v>
+        <v>0.03648412950006026</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -857,19 +857,19 @@
         <v>10283</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5528</v>
+        <v>5422</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>17972</v>
+        <v>18451</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01618070187549295</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.008698791191369019</v>
+        <v>0.008531823492670657</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02827987550020616</v>
+        <v>0.02903256381921549</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>287189</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>280682</v>
+        <v>281603</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>290634</v>
+        <v>290756</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9815654745481637</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9593252884635409</v>
+        <v>0.9624717833385291</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9933394872006072</v>
+        <v>0.9937569860306946</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>364</v>
@@ -907,19 +907,19 @@
         <v>336310</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>329688</v>
+        <v>329724</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>340089</v>
+        <v>340185</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9806831687675017</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.961375741333196</v>
+        <v>0.9614797677481632</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9917042714748648</v>
+        <v>0.9919838201787876</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>661</v>
@@ -928,19 +928,19 @@
         <v>623499</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>614877</v>
+        <v>614787</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>628397</v>
+        <v>628711</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9810893698175558</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9675230428270292</v>
+        <v>0.9673813416456635</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.988795981497082</v>
+        <v>0.9892912257215415</v>
       </c>
     </row>
     <row r="7">
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4935</v>
+        <v>4232</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.003957705250696678</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02351343082291277</v>
+        <v>0.0201620815981453</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -1053,19 +1053,19 @@
         <v>4787</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1206</v>
+        <v>1196</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12083</v>
+        <v>11644</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01433503880465742</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.003610463556335688</v>
+        <v>0.003580533267529896</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03618766278751887</v>
+        <v>0.0348718643267523</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -1074,19 +1074,19 @@
         <v>5617</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1970</v>
+        <v>2100</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12967</v>
+        <v>12397</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01032977580413663</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.00362271906240789</v>
+        <v>0.003861421847201821</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02384526082233482</v>
+        <v>0.02279663948736696</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>12886</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7491</v>
+        <v>7042</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>21181</v>
+        <v>20388</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06139401562486818</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03569300675300972</v>
+        <v>0.03355009588218573</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1009184087816671</v>
+        <v>0.09713859592211034</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>22</v>
@@ -1127,16 +1127,16 @@
         <v>16844</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>37098</v>
+        <v>39458</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07785614737829746</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05044417457521501</v>
+        <v>0.0504445308268093</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.111102937343853</v>
+        <v>0.1181715480932786</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>36</v>
@@ -1145,19 +1145,19 @@
         <v>38882</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>28101</v>
+        <v>28021</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>52529</v>
+        <v>54062</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07150237963257987</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05167552103448945</v>
+        <v>0.05152825427096846</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09659705261111667</v>
+        <v>0.0994161235995885</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>196167</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>187523</v>
+        <v>188207</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>201579</v>
+        <v>201994</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9346482791244352</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8934644868620908</v>
+        <v>0.8967232286875639</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9604362905685673</v>
+        <v>0.9624135073246407</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>263</v>
@@ -1195,19 +1195,19 @@
         <v>303125</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>290636</v>
+        <v>289347</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>313262</v>
+        <v>313186</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9078088138170451</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8704081994402432</v>
+        <v>0.8665461366878774</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9381692037987827</v>
+        <v>0.9379420351493293</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>468</v>
@@ -1216,19 +1216,19 @@
         <v>499291</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>484079</v>
+        <v>483870</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>510570</v>
+        <v>511123</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9181678445632835</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8901924518100369</v>
+        <v>0.8898090757935662</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9389085850456528</v>
+        <v>0.9399250541990747</v>
       </c>
     </row>
     <row r="11">
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5886</v>
+        <v>6204</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.003321736080943579</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01171345244440895</v>
+        <v>0.0123469855247412</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -1341,19 +1341,19 @@
         <v>5683</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2267</v>
+        <v>2027</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12833</v>
+        <v>12102</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.008396488275372838</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.003348683294825694</v>
+        <v>0.002994304515040671</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01896009007567728</v>
+        <v>0.01787959421071805</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -1362,19 +1362,19 @@
         <v>7352</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3152</v>
+        <v>3240</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>14549</v>
+        <v>16262</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.006234296162276147</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.00267312817762913</v>
+        <v>0.002747762851244285</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0123371177699915</v>
+        <v>0.01378927596309922</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>17441</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10793</v>
+        <v>11197</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26917</v>
+        <v>26246</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03471037981447057</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02147977295699617</v>
+        <v>0.02228341456605352</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05357019176056549</v>
+        <v>0.05223529080375977</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -1412,19 +1412,19 @@
         <v>31725</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21358</v>
+        <v>22058</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>44840</v>
+        <v>44987</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04687161659798267</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03155587194123231</v>
+        <v>0.03259005343392191</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06624823102259059</v>
+        <v>0.06646577657628658</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>47</v>
@@ -1433,19 +1433,19 @@
         <v>49165</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>37577</v>
+        <v>34743</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>66106</v>
+        <v>63138</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04169009654510675</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03186346394981429</v>
+        <v>0.02946015995823201</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05605529266647599</v>
+        <v>0.05353812495604463</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>483356</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>473329</v>
+        <v>474315</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>490313</v>
+        <v>489966</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9619678841045859</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9420111361109589</v>
+        <v>0.9439736203686379</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9758133276603055</v>
+        <v>0.9751230505364583</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>627</v>
@@ -1483,19 +1483,19 @@
         <v>639434</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>625539</v>
+        <v>625202</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>650815</v>
+        <v>649307</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9447318951266445</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9242026352048192</v>
+        <v>0.9237041200183478</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9615463125564009</v>
+        <v>0.9593184737954652</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1129</v>
@@ -1504,19 +1504,19 @@
         <v>1122790</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1105355</v>
+        <v>1108311</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1135611</v>
+        <v>1137175</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9520756072926171</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9372912312527529</v>
+        <v>0.9397978072624931</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9629469883816701</v>
+        <v>0.9642730874469893</v>
       </c>
     </row>
     <row r="15">
@@ -1849,16 +1849,16 @@
         <v>995</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8996</v>
+        <v>9055</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0128525277763516</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003210569420688713</v>
+        <v>0.003210840191775958</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02904020302724206</v>
+        <v>0.02923025646653413</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -1867,19 +1867,19 @@
         <v>4002</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>996</v>
+        <v>1005</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9010</v>
+        <v>9839</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01130552384618413</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002812299417233956</v>
+        <v>0.002839091925279774</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02545087387102667</v>
+        <v>0.02779323034195555</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -1888,19 +1888,19 @@
         <v>7984</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2959</v>
+        <v>3971</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14126</v>
+        <v>15273</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01202750833795242</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004458414407691403</v>
+        <v>0.005981746591961638</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02128170374795404</v>
+        <v>0.02300950347298255</v>
       </c>
     </row>
     <row r="5">
@@ -1917,19 +1917,19 @@
         <v>7231</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2967</v>
+        <v>3112</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13883</v>
+        <v>14167</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02334055732639033</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.009576068352167346</v>
+        <v>0.01004720540472668</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04481637192931883</v>
+        <v>0.04573120093624877</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -1938,19 +1938,19 @@
         <v>6628</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2896</v>
+        <v>2746</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14209</v>
+        <v>14571</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01872255384764003</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.008180190317029953</v>
+        <v>0.007756415391536048</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04013932865643374</v>
+        <v>0.04116172597070061</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>13</v>
@@ -1959,19 +1959,19 @@
         <v>13858</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7106</v>
+        <v>7826</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>22143</v>
+        <v>22343</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0208777693772016</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01070503076826063</v>
+        <v>0.0117893142342567</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03335885614362665</v>
+        <v>0.03365995970400858</v>
       </c>
     </row>
     <row r="6">
@@ -1988,19 +1988,19 @@
         <v>298574</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>290854</v>
+        <v>290425</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>303783</v>
+        <v>303767</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9638069148972581</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9388883122200614</v>
+        <v>0.9375020873340466</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9806221079477282</v>
+        <v>0.9805706539989253</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>334</v>
@@ -2009,19 +2009,19 @@
         <v>343366</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>335236</v>
+        <v>334686</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>349026</v>
+        <v>349096</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9699719223061758</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9470048007653649</v>
+        <v>0.9454512399227283</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9859605023906068</v>
+        <v>0.9861569378317723</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>605</v>
@@ -2030,19 +2030,19 @@
         <v>641940</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>631939</v>
+        <v>632058</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>650689</v>
+        <v>649428</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9670947222848459</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9520273028275672</v>
+        <v>0.9522072069390978</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9802754417318031</v>
+        <v>0.9783758394920615</v>
       </c>
     </row>
     <row r="7">
@@ -2134,19 +2134,19 @@
         <v>6488</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>15189</v>
+        <v>15252</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02596776940698215</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.008607088303296123</v>
+        <v>0.008600370467349247</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06079316407418139</v>
+        <v>0.06104583119275442</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>13</v>
@@ -2155,19 +2155,19 @@
         <v>15353</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8502</v>
+        <v>8713</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>25988</v>
+        <v>26749</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03946877511405186</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0218565299216281</v>
+        <v>0.0223986260477422</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06680963281800696</v>
+        <v>0.06876705483941521</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>18</v>
@@ -2176,19 +2176,19 @@
         <v>21841</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>13444</v>
+        <v>13057</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>34706</v>
+        <v>34095</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03418843670696548</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02104495726121873</v>
+        <v>0.02043953159357587</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05432731077643185</v>
+        <v>0.05337026336617608</v>
       </c>
     </row>
     <row r="9">
@@ -2205,19 +2205,19 @@
         <v>18992</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11510</v>
+        <v>10877</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>29585</v>
+        <v>29778</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07601352385111801</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.046065718877801</v>
+        <v>0.0435337176461888</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1184101932423912</v>
+        <v>0.1191819625786202</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>36</v>
@@ -2226,19 +2226,19 @@
         <v>39484</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>28255</v>
+        <v>28761</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>53270</v>
+        <v>53812</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1015058784409792</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07263808107015748</v>
+        <v>0.07394074343746812</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1369483926205158</v>
+        <v>0.1383426099201515</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>53</v>
@@ -2247,19 +2247,19 @@
         <v>58476</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>46098</v>
+        <v>45174</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>76154</v>
+        <v>76571</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09153563904189339</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07215994512887335</v>
+        <v>0.07071421792931702</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1192079778420102</v>
+        <v>0.1198607032994208</v>
       </c>
     </row>
     <row r="10">
@@ -2276,19 +2276,19 @@
         <v>224371</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>211615</v>
+        <v>212075</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>232855</v>
+        <v>234027</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8980187067418999</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8469648756584915</v>
+        <v>0.8488041979949182</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.931975267623827</v>
+        <v>0.9366668457216705</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>301</v>
@@ -2297,19 +2297,19 @@
         <v>334143</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>317976</v>
+        <v>318690</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>348342</v>
+        <v>347145</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.859025346444969</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8174641016493113</v>
+        <v>0.8192975647668876</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8955291162018731</v>
+        <v>0.892451042234241</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>501</v>
@@ -2318,19 +2318,19 @@
         <v>558514</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>537229</v>
+        <v>538131</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>573683</v>
+        <v>575443</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8742759242511411</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8409575865397959</v>
+        <v>0.8423693318141504</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8980206661835006</v>
+        <v>0.9007763728709958</v>
       </c>
     </row>
     <row r="11">
@@ -2422,19 +2422,19 @@
         <v>10470</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5231</v>
+        <v>5234</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19502</v>
+        <v>19239</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01870784846397888</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0093478597519117</v>
+        <v>0.00935240345740568</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03484681146896472</v>
+        <v>0.03437763915940308</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>17</v>
@@ -2443,19 +2443,19 @@
         <v>19355</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11812</v>
+        <v>11881</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>30552</v>
+        <v>30071</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02605018319372777</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01589847652536852</v>
+        <v>0.0159915189884634</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04112063424269925</v>
+        <v>0.04047443297389419</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>26</v>
@@ -2464,19 +2464,19 @@
         <v>29824</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>18789</v>
+        <v>19779</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>43307</v>
+        <v>43129</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02289571944054244</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01442438885814439</v>
+        <v>0.01518396196313548</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03324609062771073</v>
+        <v>0.03310958248231983</v>
       </c>
     </row>
     <row r="13">
@@ -2493,19 +2493,19 @@
         <v>26223</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17758</v>
+        <v>17218</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>37241</v>
+        <v>38520</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04685648781833272</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03173138924183686</v>
+        <v>0.03076661652544018</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06654568409916378</v>
+        <v>0.06883080827416654</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -2514,19 +2514,19 @@
         <v>46111</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32871</v>
+        <v>33164</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>60905</v>
+        <v>60314</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06206314365299925</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04424225637169368</v>
+        <v>0.04463615161719475</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08197406524080343</v>
+        <v>0.08117955660891571</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>66</v>
@@ -2535,19 +2535,19 @@
         <v>72334</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>55480</v>
+        <v>55928</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>91427</v>
+        <v>91242</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05552995681213448</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04259103665226126</v>
+        <v>0.04293553236162992</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07018755122308599</v>
+        <v>0.07004517577434112</v>
       </c>
     </row>
     <row r="14">
@@ -2564,19 +2564,19 @@
         <v>522945</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>509137</v>
+        <v>509255</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>533009</v>
+        <v>532930</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9344356637176884</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.909763676361668</v>
+        <v>0.909973999572</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.952418452264843</v>
+        <v>0.9522775903799804</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>635</v>
@@ -2585,19 +2585,19 @@
         <v>677509</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>660113</v>
+        <v>661567</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>693565</v>
+        <v>694105</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.911886673153273</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.888473170846284</v>
+        <v>0.8904300392702643</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9334971330009076</v>
+        <v>0.9342233285922682</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1106</v>
@@ -2606,19 +2606,19 @@
         <v>1200454</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1179018</v>
+        <v>1179295</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1220954</v>
+        <v>1218334</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9215743237473231</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9051179526849548</v>
+        <v>0.9053307153567011</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9373118028376732</v>
+        <v>0.9353006077508249</v>
       </c>
     </row>
     <row r="15">
@@ -2995,19 +2995,19 @@
         <v>3941</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1042</v>
+        <v>1002</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9782</v>
+        <v>10012</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01178759051413007</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003117374225996667</v>
+        <v>0.002997190001264944</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02925817870606783</v>
+        <v>0.02994752777476093</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -3016,19 +3016,19 @@
         <v>2947</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8571</v>
+        <v>8099</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.007801532862839146</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.002380503794290189</v>
+        <v>0.002371521311325795</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02268829377361531</v>
+        <v>0.02144063575660308</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -3037,19 +3037,19 @@
         <v>6888</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2897</v>
+        <v>2995</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>13843</v>
+        <v>13555</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.009673002627516188</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.00406789476484623</v>
+        <v>0.004205239751665404</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0194403621303491</v>
+        <v>0.01903560481214076</v>
       </c>
     </row>
     <row r="6">
@@ -3066,19 +3066,19 @@
         <v>330389</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>324548</v>
+        <v>324318</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>333288</v>
+        <v>333328</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.98821240948587</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.970741821293933</v>
+        <v>0.9700524722252389</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9968826257740033</v>
+        <v>0.997002809998735</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>351</v>
@@ -3087,19 +3087,19 @@
         <v>374815</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>369191</v>
+        <v>369663</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>376863</v>
+        <v>376866</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9921984671371609</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9773117062263844</v>
+        <v>0.978559364243397</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9976194962057098</v>
+        <v>0.9976284786886742</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>672</v>
@@ -3108,19 +3108,19 @@
         <v>705204</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>698249</v>
+        <v>698537</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>709195</v>
+        <v>709097</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9903269973724839</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9805596378696508</v>
+        <v>0.9809643951878592</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9959321052351537</v>
+        <v>0.9957947602483346</v>
       </c>
     </row>
     <row r="7">
@@ -3212,19 +3212,19 @@
         <v>5477</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2435</v>
+        <v>2450</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11160</v>
+        <v>11335</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02130994543847562</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.009475909085167529</v>
+        <v>0.009534259638555476</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04342340308937907</v>
+        <v>0.04410512218471772</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -3233,19 +3233,19 @@
         <v>13383</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6389</v>
+        <v>6432</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>25598</v>
+        <v>23489</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03344363303471059</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01596524778138007</v>
+        <v>0.01607216726717555</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06396907809337979</v>
+        <v>0.05869788224863833</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>16</v>
@@ -3254,19 +3254,19 @@
         <v>18860</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>10780</v>
+        <v>10964</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>30720</v>
+        <v>29605</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02869851732526726</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01640445596823357</v>
+        <v>0.01668384824258733</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04674610814114772</v>
+        <v>0.04504949114990132</v>
       </c>
     </row>
     <row r="9">
@@ -3283,19 +3283,19 @@
         <v>19583</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12628</v>
+        <v>12850</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>29046</v>
+        <v>27578</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07619818547353903</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04913767868598548</v>
+        <v>0.05000136023856387</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1130207059443823</v>
+        <v>0.107308963438246</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>25</v>
@@ -3304,19 +3304,19 @@
         <v>32001</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>22313</v>
+        <v>21480</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>45722</v>
+        <v>47582</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07996962325906116</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05575938130450074</v>
+        <v>0.05367810858216481</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1142572582905226</v>
+        <v>0.118905988058116</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>48</v>
@@ -3325,19 +3325,19 @@
         <v>51584</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>39738</v>
+        <v>38958</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>68008</v>
+        <v>67044</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07849472879343949</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06046897756307754</v>
+        <v>0.05928149101455116</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1034858730752458</v>
+        <v>0.1020190072844303</v>
       </c>
     </row>
     <row r="10">
@@ -3354,19 +3354,19 @@
         <v>231939</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>223055</v>
+        <v>222890</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>240356</v>
+        <v>239554</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9024918690879854</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8679246270346214</v>
+        <v>0.8672842000057687</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9352459500595758</v>
+        <v>0.9321254533647469</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>266</v>
@@ -3375,19 +3375,19 @@
         <v>354785</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>337668</v>
+        <v>338020</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>366279</v>
+        <v>367346</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8865867437062283</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8438127842601675</v>
+        <v>0.844694096093621</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9153114455673264</v>
+        <v>0.9179773775411432</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>539</v>
@@ -3396,19 +3396,19 @@
         <v>586723</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>569215</v>
+        <v>568214</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>601421</v>
+        <v>601896</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8928067538812933</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8661655378325432</v>
+        <v>0.8646419464609129</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9151721939363214</v>
+        <v>0.9158945144944802</v>
       </c>
     </row>
     <row r="11">
@@ -3500,19 +3500,19 @@
         <v>5477</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2113</v>
+        <v>2092</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11374</v>
+        <v>11823</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.009261549240334146</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.003573182694771393</v>
+        <v>0.003537932215953397</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01923483549367026</v>
+        <v>0.01999351645352997</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -3521,19 +3521,19 @@
         <v>13383</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7091</v>
+        <v>7069</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>23757</v>
+        <v>23731</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01720346040234714</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.009115801351956894</v>
+        <v>0.009086512801062683</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03053932571576464</v>
+        <v>0.03050485454319023</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>16</v>
@@ -3542,19 +3542,19 @@
         <v>18860</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10601</v>
+        <v>11442</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>30162</v>
+        <v>30054</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01377366776525647</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.007741863271827797</v>
+        <v>0.008356449998219028</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02202818806661321</v>
+        <v>0.02194925302946781</v>
       </c>
     </row>
     <row r="13">
@@ -3571,19 +3571,19 @@
         <v>23524</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15994</v>
+        <v>15896</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34032</v>
+        <v>34177</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03978118151313439</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02704814602470635</v>
+        <v>0.02688103692218831</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0575515790825916</v>
+        <v>0.05779786445730018</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -3592,19 +3592,19 @@
         <v>34948</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23807</v>
+        <v>25011</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>48305</v>
+        <v>50311</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04492491847575505</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03060349731855813</v>
+        <v>0.03215114421716757</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06209399331929879</v>
+        <v>0.06467267524717314</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>55</v>
@@ -3613,19 +3613,19 @@
         <v>58472</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>45181</v>
+        <v>44853</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>73476</v>
+        <v>74996</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04270354495474278</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03299650412150031</v>
+        <v>0.03275704383322503</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05366084057600896</v>
+        <v>0.05477158781657473</v>
       </c>
     </row>
     <row r="14">
@@ -3642,19 +3642,19 @@
         <v>562328</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>551120</v>
+        <v>551194</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>571126</v>
+        <v>571412</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9509572692465315</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9320036797263731</v>
+        <v>0.9321285243676153</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9658362598610838</v>
+        <v>0.9663193441496558</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>617</v>
@@ -3663,19 +3663,19 @@
         <v>729599</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>713773</v>
+        <v>713049</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>742976</v>
+        <v>742614</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9378716211218978</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9175279514221117</v>
+        <v>0.9165962355355286</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9550669608794189</v>
+        <v>0.9546018739430425</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1211</v>
@@ -3684,19 +3684,19 @@
         <v>1291927</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1273906</v>
+        <v>1272896</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1308013</v>
+        <v>1308889</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9435227872800007</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9303613058133681</v>
+        <v>0.9296241851647191</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9552707591521544</v>
+        <v>0.9559105894845716</v>
       </c>
     </row>
     <row r="15">
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3808</v>
+        <v>4400</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003092653862618469</v>
@@ -4038,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.00935458194569266</v>
+        <v>0.0108081169599437</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -4050,7 +4050,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3808</v>
+        <v>4201</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002542798298335161</v>
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.008693787195025095</v>
+        <v>0.009590447453267497</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -4068,19 +4068,19 @@
         <v>2373</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5833</v>
+        <v>5648</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002807652444370454</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0007677614957057662</v>
+        <v>0.0007698857512874265</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.00690180598172286</v>
+        <v>0.006682668624526364</v>
       </c>
     </row>
     <row r="5">
@@ -4097,19 +4097,19 @@
         <v>4474</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1876</v>
+        <v>1870</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9342</v>
+        <v>9878</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01098963925108483</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.004608740513556896</v>
+        <v>0.004593484397232346</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02294884941727054</v>
+        <v>0.02426661745465568</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -4118,19 +4118,19 @@
         <v>10793</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6865</v>
+        <v>7034</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17108</v>
+        <v>16797</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02463851171644469</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01567148942208108</v>
+        <v>0.01605866889495646</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03905592866952216</v>
+        <v>0.03834596021263006</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>26</v>
@@ -4139,19 +4139,19 @@
         <v>15266</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10157</v>
+        <v>9885</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>22059</v>
+        <v>21509</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01806412983150492</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01201810837471242</v>
+        <v>0.01169663246430122</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02610134444395953</v>
+        <v>0.02545098743268807</v>
       </c>
     </row>
     <row r="6">
@@ -4168,19 +4168,19 @@
         <v>401347</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>396252</v>
+        <v>395407</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>404387</v>
+        <v>404128</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9859177068862967</v>
+        <v>0.9859177068862968</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9734001923821156</v>
+        <v>0.9713261825140719</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9933847086244736</v>
+        <v>0.9927493971667165</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>804</v>
@@ -4189,19 +4189,19 @@
         <v>426139</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>419549</v>
+        <v>420026</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>430287</v>
+        <v>430355</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9728186899852201</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9577734361205322</v>
+        <v>0.9588620720245691</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.982287406752568</v>
+        <v>0.9824435702346727</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1365</v>
@@ -4210,19 +4210,19 @@
         <v>827487</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>819991</v>
+        <v>820656</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>832749</v>
+        <v>833253</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9791282177241246</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9702592591363687</v>
+        <v>0.9710463224121886</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9853549526927935</v>
+        <v>0.9859513647984133</v>
       </c>
     </row>
     <row r="7">
@@ -4314,19 +4314,19 @@
         <v>4633</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2133</v>
+        <v>1974</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10022</v>
+        <v>9698</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01497795486017556</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.00689602710828256</v>
+        <v>0.006380495777965757</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03239968615970531</v>
+        <v>0.03135457714830963</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>31</v>
@@ -4335,19 +4335,19 @@
         <v>16593</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>11314</v>
+        <v>11404</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>23537</v>
+        <v>23211</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.03571362757027155</v>
+        <v>0.03571362757027154</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02435170815696282</v>
+        <v>0.02454547154800889</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0506591913914088</v>
+        <v>0.04995823690755128</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>39</v>
@@ -4356,19 +4356,19 @@
         <v>21226</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>15137</v>
+        <v>14926</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>28424</v>
+        <v>29465</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.02742623516612477</v>
+        <v>0.02742623516612476</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01955848000595013</v>
+        <v>0.01928636476088838</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03672757334562336</v>
+        <v>0.03807191686953328</v>
       </c>
     </row>
     <row r="9">
@@ -4385,19 +4385,19 @@
         <v>15841</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10765</v>
+        <v>11062</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>22834</v>
+        <v>22907</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.05121397628321765</v>
+        <v>0.05121397628321766</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03480283987937747</v>
+        <v>0.0357636857202791</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07382045291027212</v>
+        <v>0.07405677015630552</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>95</v>
@@ -4406,19 +4406,19 @@
         <v>49060</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>40502</v>
+        <v>39153</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>60881</v>
+        <v>59682</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1055933651821866</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08717536058163736</v>
+        <v>0.08427047190741938</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.131038100679962</v>
+        <v>0.1284556193207586</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>122</v>
@@ -4427,19 +4427,19 @@
         <v>64901</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>53473</v>
+        <v>54081</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>76488</v>
+        <v>78732</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0838596437445389</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06909419444336422</v>
+        <v>0.06987974587976845</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09883247061809568</v>
+        <v>0.101731984243179</v>
       </c>
     </row>
     <row r="10">
@@ -4456,19 +4456,19 @@
         <v>288838</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>280740</v>
+        <v>281151</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>294316</v>
+        <v>295103</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9338080688566069</v>
+        <v>0.9338080688566067</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9076282175136368</v>
+        <v>0.9089561600691943</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9515187404213421</v>
+        <v>0.9540640347794767</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>755</v>
@@ -4477,19 +4477,19 @@
         <v>398956</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>386496</v>
+        <v>387253</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>409564</v>
+        <v>410812</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8586930072475418</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8318726168863592</v>
+        <v>0.8335033821026346</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8815243375420839</v>
+        <v>0.8842091302072149</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1177</v>
@@ -4498,19 +4498,19 @@
         <v>687794</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>673539</v>
+        <v>672726</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>699469</v>
+        <v>700756</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8887141210893363</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8702953714805395</v>
+        <v>0.8692452092992352</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9037998588100902</v>
+        <v>0.905463038931112</v>
       </c>
     </row>
     <row r="11">
@@ -4602,19 +4602,19 @@
         <v>5892</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2854</v>
+        <v>2732</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11840</v>
+        <v>11547</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.008224292395519091</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.003983453279132653</v>
+        <v>0.003813164735550636</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01652713431020343</v>
+        <v>0.01611880254934312</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>33</v>
@@ -4623,19 +4623,19 @@
         <v>17707</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12401</v>
+        <v>12335</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>24881</v>
+        <v>24300</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01961628275669963</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01373820758860515</v>
+        <v>0.01366517365861138</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02756377284141548</v>
+        <v>0.02692013097108242</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>43</v>
@@ -4644,19 +4644,19 @@
         <v>23599</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>17157</v>
+        <v>17113</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>31598</v>
+        <v>32725</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01457558519912852</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01059669886172721</v>
+        <v>0.01056976378828293</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.019516493302466</v>
+        <v>0.02021239267451483</v>
       </c>
     </row>
     <row r="13">
@@ -4673,19 +4673,19 @@
         <v>20315</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14129</v>
+        <v>14039</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28619</v>
+        <v>28824</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02835703768019497</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01972241511098157</v>
+        <v>0.01959671998706744</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03994845181074397</v>
+        <v>0.04023468161484554</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>114</v>
@@ -4694,19 +4694,19 @@
         <v>59852</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>50319</v>
+        <v>48572</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>72515</v>
+        <v>71990</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06630709410687313</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05574604504182804</v>
+        <v>0.05381028555217597</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08033512849372412</v>
+        <v>0.07975389629058886</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>148</v>
@@ -4715,19 +4715,19 @@
         <v>80167</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>68342</v>
+        <v>67632</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>95079</v>
+        <v>94796</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04951505420210807</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04221131145489716</v>
+        <v>0.04177275822891852</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05872518108705984</v>
+        <v>0.05855033166064243</v>
       </c>
     </row>
     <row r="14">
@@ -4744,19 +4744,19 @@
         <v>690184</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>680384</v>
+        <v>680406</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>697447</v>
+        <v>697754</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.963418669924286</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9497383891355211</v>
+        <v>0.9497683856064113</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9735568810441592</v>
+        <v>0.9739849515610464</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1559</v>
@@ -4765,19 +4765,19 @@
         <v>825096</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>810878</v>
+        <v>812847</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>836806</v>
+        <v>837748</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9140766231364272</v>
+        <v>0.9140766231364271</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8983250566438407</v>
+        <v>0.9005072109619572</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9270500524061429</v>
+        <v>0.9280927612106401</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2542</v>
@@ -4786,19 +4786,19 @@
         <v>1515280</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1498610</v>
+        <v>1498192</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1529281</v>
+        <v>1528875</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9359093605987634</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9256128834683455</v>
+        <v>0.925354929209504</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9445568754978759</v>
+        <v>0.9443062618950928</v>
       </c>
     </row>
     <row r="15">
